--- a/public/Documentos/plantilla.xlsx
+++ b/public/Documentos/plantilla.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>documento</t>
   </si>
@@ -48,12 +48,36 @@
   </si>
   <si>
     <t>acad</t>
+  </si>
+  <si>
+    <t>nivel</t>
+  </si>
+  <si>
+    <t>dedicacion</t>
+  </si>
+  <si>
+    <t>vinculacion</t>
+  </si>
+  <si>
+    <t>fechainicio</t>
+  </si>
+  <si>
+    <t>fechafin</t>
+  </si>
+  <si>
+    <t>departamento</t>
+  </si>
+  <si>
+    <t>cargo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,11 +152,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,18 +440,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,9 +477,31 @@
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>